--- a/submission/New Data Sets/Milanov Vrh.xlsx
+++ b/submission/New Data Sets/Milanov Vrh.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Desktop/submission/New Data Sets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Desktop/Don-t-Let-the-Bark-Beetle-Bite-You/submission/New Data Sets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FAF474-FDEB-EA4C-84E7-679D6E9214D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43516508-EF75-CC4C-8132-40EB241B5C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33320" yWindow="-1920" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33480" yWindow="-1620" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="List2" sheetId="2" r:id="rId1"/>
+    <sheet name="Milanov Vrh" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
